--- a/Documents/pTag_Concept.xlsx
+++ b/Documents/pTag_Concept.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>ParameterTag</t>
   </si>
@@ -36,39 +36,9 @@
     <t>value</t>
   </si>
   <si>
-    <t>var1</t>
-  </si>
-  <si>
-    <t>var3</t>
-  </si>
-  <si>
-    <t>var2</t>
-  </si>
-  <si>
-    <t>ParameterTag1</t>
-  </si>
-  <si>
     <t>ParameterTag2</t>
   </si>
   <si>
-    <t>Emap</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>Name4</t>
-  </si>
-  <si>
-    <t>Name5</t>
-  </si>
-  <si>
     <t>TestonaClass</t>
   </si>
   <si>
@@ -93,60 +63,62 @@
     <t>JETZT</t>
   </si>
   <si>
-    <t>SOLL…</t>
-  </si>
-  <si>
-    <t>Parameter Object</t>
-  </si>
-  <si>
-    <t>List&lt;String&gt;ID</t>
-  </si>
-  <si>
-    <t>ID1, ID2, ID3</t>
-  </si>
-  <si>
-    <t>Parameter1</t>
-  </si>
-  <si>
-    <t>Parameter2</t>
-  </si>
-  <si>
-    <t>Parameter3</t>
-  </si>
-  <si>
-    <t>Parameter4</t>
-  </si>
-  <si>
-    <t>Parameter5</t>
-  </si>
-  <si>
-    <t>oder: anstatt ID - Name</t>
-  </si>
-  <si>
-    <t>Bei Kommandos, immer getParameterListTag</t>
-  </si>
-  <si>
-    <t>ParameterListTag</t>
-  </si>
-  <si>
-    <t>ParameterListTag gehört zu TestonaObject(Permissions), steht immer dort zur Verfügung?</t>
-  </si>
-  <si>
-    <t>nach Variantsstruktur</t>
-  </si>
-  <si>
     <t>Problem:</t>
   </si>
   <si>
     <t>bei serialize wird ID und Name geschrieben, doppelte ParameterTag Einträge</t>
+  </si>
+  <si>
+    <t>max_speed</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>cabrio</t>
+  </si>
+  <si>
+    <t>limo</t>
+  </si>
+  <si>
+    <t>kombi</t>
+  </si>
+  <si>
+    <t>max_speed|cabrio;limo;kombi</t>
+  </si>
+  <si>
+    <t>km/h|100;200;300</t>
+  </si>
+  <si>
+    <t>merge function</t>
+  </si>
+  <si>
+    <t>In Commands überprüfen ob ein oder mehrere Tags, parser aufrufen</t>
+  </si>
+  <si>
+    <t>nr_doors|cabrio;notCabrio</t>
+  </si>
+  <si>
+    <t>|2;4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --&gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,15 +198,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,8 +216,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,335 +550,228 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="31.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="I5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
+        <v>30</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="I8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="2">
+        <v>300</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="J19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="J20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F25" s="6"/>
-      <c r="G25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="2" t="s">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:B24"/>
+  <mergeCells count="11">
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="I8:I11"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
